--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmz5202/Software/tgw-tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD64F9-EC35-B549-B43B-7EA3E62A7B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C452A72-DAF2-FE41-87D1-286939AD3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57900" yWindow="5560" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics_output" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -303,14 +303,48 @@
   </si>
   <si>
     <t>Simulation</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>WL-hist</t>
+  </si>
+  <si>
+    <t>PRECT_95</t>
+  </si>
+  <si>
+    <t>TMQ_95</t>
+  </si>
+  <si>
+    <t>dPRECT</t>
+  </si>
+  <si>
+    <t>dTMQ</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>dPRECT/warming</t>
+  </si>
+  <si>
+    <t>dTMQ/warming</t>
+  </si>
+  <si>
+    <t>dPRECT_95</t>
+  </si>
+  <si>
+    <t>dTMQ_95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -796,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +843,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -868,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,7 +944,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1014,7 +1050,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1156,7 +1192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,15 +1200,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I71" sqref="A1:I71"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1294,12 @@
       <c r="I3">
         <v>3.3012830841749302E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>1-I3</f>
+        <v>0.96698716915825067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1287,8 +1327,12 @@
       <c r="I4">
         <v>7.9799101183487603E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">1-I4</f>
+        <v>0.99920200898816514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1316,8 +1360,12 @@
       <c r="I5">
         <v>1.5421746829187601E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.99984578253170808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1393,12 @@
       <c r="I6" s="1">
         <v>3.7252682461794299E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.99999627473175379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1403,8 +1455,12 @@
       <c r="I8">
         <v>2.3245941036371801E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.97675405896362821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1432,8 +1488,12 @@
       <c r="I9">
         <v>2.4782828120872201E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.99975217171879127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1461,8 +1521,12 @@
       <c r="I10" s="1">
         <v>4.9352059576848203E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.99999506479404232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1490,8 +1554,12 @@
       <c r="I11" s="1">
         <v>5.5169320533897403E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.99999999994483069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1548,8 +1616,12 @@
       <c r="I13">
         <v>1.3332548131387101E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.99866674518686127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1577,8 +1649,12 @@
       <c r="I14">
         <v>5.5943712103251497E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.94405628789674845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1606,8 +1682,12 @@
       <c r="I15">
         <v>2.5086759031837701E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.99749132409681618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1635,8 +1715,12 @@
       <c r="I16">
         <v>5.8584119498479303E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.99414158805015207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1665,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1693,8 +1777,12 @@
       <c r="I18">
         <v>3.20894148737896E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.96791058512621042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1722,8 +1810,12 @@
       <c r="I19">
         <v>1.8837390281803701E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.9981162609718196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1751,8 +1843,12 @@
       <c r="I20">
         <v>3.4409794279972899E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.99965590205720023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1780,8 +1876,12 @@
       <c r="I21" s="1">
         <v>6.37078040827266E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.99999362921959167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1809,8 +1909,12 @@
       <c r="I22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1838,8 +1942,12 @@
       <c r="I23">
         <v>0.830776201258277</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.169223798741723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1867,8 +1975,12 @@
       <c r="I24">
         <v>0.93379380094090803</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>6.6206199059091975E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1896,8 +2008,12 @@
       <c r="I25">
         <v>0.85856530403353504</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.14143469596646496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1925,8 +2041,12 @@
       <c r="I26">
         <v>0.87029168911351495</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.12970831088648505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1954,8 +2074,12 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1983,8 +2107,12 @@
       <c r="I28">
         <v>3.18157609150771E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.99681842390849229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2012,8 +2140,12 @@
       <c r="I29" s="1">
         <v>1.6752908052192398E-8</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.99999998324709194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2041,8 +2173,12 @@
       <c r="I30" s="1">
         <v>5.9180358169443301E-15</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2070,8 +2206,12 @@
       <c r="I31" s="1">
         <v>1.71616697652184E-27</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2224,7 @@
       <c r="D32">
         <v>2.2835996000000001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>52.598788999999897</v>
       </c>
       <c r="F32">
@@ -2099,8 +2239,12 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2257,7 @@
       <c r="D33">
         <v>2.6071865999999999</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>58.930666500000001</v>
       </c>
       <c r="F33">
@@ -2128,8 +2272,12 @@
       <c r="I33" s="1">
         <v>3.8991604492475897E-17</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2290,7 @@
       <c r="D34">
         <v>2.8533205499999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>62.605530499999901</v>
       </c>
       <c r="F34">
@@ -2157,8 +2305,12 @@
       <c r="I34" s="1">
         <v>4.70072579487958E-34</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2171,7 +2323,7 @@
       <c r="D35">
         <v>2.5509716500000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>67.126820499999894</v>
       </c>
       <c r="F35">
@@ -2186,8 +2338,12 @@
       <c r="I35" s="1">
         <v>2.8722743603478801E-72</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2356,7 @@
       <c r="D36">
         <v>2.8914711500000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>76.144633999999897</v>
       </c>
       <c r="F36">
@@ -2215,8 +2371,12 @@
       <c r="I36" s="1">
         <v>1.0688740773382199E-135</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2244,8 +2404,12 @@
       <c r="I37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2273,8 +2437,12 @@
       <c r="I38" s="1">
         <v>9.3774101791213703E-12</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.99999999999062261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2302,8 +2470,12 @@
       <c r="I39" s="1">
         <v>1.45949763472273E-20</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2331,8 +2503,12 @@
       <c r="I40" s="1">
         <v>1.6552025700915701E-45</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2360,8 +2536,12 @@
       <c r="I41" s="1">
         <v>2.5787372592792799E-71</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2389,8 +2569,12 @@
       <c r="I42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2418,8 +2602,12 @@
       <c r="I43" s="1">
         <v>1.7625721936232901E-294</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2447,8 +2635,12 @@
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2476,8 +2668,12 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2505,8 +2701,12 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2534,8 +2734,12 @@
       <c r="I47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2563,8 +2767,12 @@
       <c r="I48">
         <v>4.0947492146165901E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.95905250785383411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2592,8 +2800,12 @@
       <c r="I49">
         <v>8.9195752838080902E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.99910804247161922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2621,8 +2833,12 @@
       <c r="I50">
         <v>2.0392176778079199E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0.99979607823221917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2650,8 +2866,12 @@
       <c r="I51" s="1">
         <v>5.2278742439054801E-6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0.99999477212575605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2679,8 +2899,12 @@
       <c r="I52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2708,8 +2932,12 @@
       <c r="I53">
         <v>6.2966791064069799E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0.99370332089359303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2737,8 +2965,12 @@
       <c r="I54" s="1">
         <v>2.5622140647692101E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0.99997437785935228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2766,8 +2998,12 @@
       <c r="I55" s="1">
         <v>4.3840267869127098E-9</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0.99999999561597319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2795,8 +3031,12 @@
       <c r="I56" s="1">
         <v>2.8264575272904699E-16</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2824,8 +3064,12 @@
       <c r="I57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2853,8 +3097,12 @@
       <c r="I58">
         <v>4.3894696730718196E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.99561053032692814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2882,8 +3130,12 @@
       <c r="I59" s="1">
         <v>3.1504707489329798E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0.99996849529251064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2911,8 +3163,12 @@
       <c r="I60" s="1">
         <v>2.0505827567967801E-8</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0.99999997949417241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2940,8 +3196,12 @@
       <c r="I61" s="1">
         <v>3.8187407497015798E-14</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0.99999999999996181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2969,8 +3229,12 @@
       <c r="I62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -2998,8 +3262,12 @@
       <c r="I63">
         <v>0.57992833938249999</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0.42007166061750001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -3027,8 +3295,12 @@
       <c r="I64">
         <v>0.51543233645275199</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0.48456766354724801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -3056,8 +3328,12 @@
       <c r="I65">
         <v>0.32819802476804399</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0.67180197523195595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -3085,8 +3361,12 @@
       <c r="I66">
         <v>0.118655401219895</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0.88134459878010496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -3114,8 +3394,12 @@
       <c r="I67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -3143,8 +3427,12 @@
       <c r="I68">
         <v>0.86793352004021695</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" ref="J68:J71" si="1">1-I68</f>
+        <v>0.13206647995978305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -3172,8 +3460,12 @@
       <c r="I69">
         <v>0.96723970883084198</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>3.2760291169158018E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -3201,8 +3493,12 @@
       <c r="I70">
         <v>0.66369308798645998</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>0.33630691201354002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -3229,6 +3525,10 @@
       </c>
       <c r="I71">
         <v>0.73168022736253602</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>0.26831977263746398</v>
       </c>
     </row>
   </sheetData>
@@ -5444,15 +5744,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CC06A6-9503-D742-8415-062A32654C15}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
@@ -5471,14 +5771,50 @@
       <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="M1" t="s">
         <v>82</v>
       </c>
       <c r="N1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -5506,8 +5842,20 @@
       <c r="K2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>22.3</v>
+      </c>
+      <c r="N2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="S2">
+        <v>52.6</v>
+      </c>
+      <c r="T2">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -5533,7 +5881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -5559,7 +5907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5585,7 +5933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -5611,7 +5959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>63</v>
       </c>
@@ -5638,21 +5986,51 @@
         <v>1.5999999999999999</v>
       </c>
       <c r="M7">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="N7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O7">
-        <f>M7/L7</f>
-        <v>8.4375</v>
-      </c>
-      <c r="P7">
-        <f>N7/L7</f>
-        <v>6.375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="O7" s="7">
+        <f>(M7-M$2)/M$2</f>
+        <v>0.16591928251121071</v>
+      </c>
+      <c r="P7" s="7">
+        <f>(N7-N$2)/N$2</f>
+        <v>0.1023391812865497</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>O7/$L7</f>
+        <v>0.10369955156950671</v>
+      </c>
+      <c r="R7" s="7">
+        <f>P7/$L7</f>
+        <v>6.3961988304093567E-2</v>
+      </c>
+      <c r="S7">
+        <v>58.9</v>
+      </c>
+      <c r="T7">
+        <v>89.1</v>
+      </c>
+      <c r="U7" s="7">
+        <f>(S7-S$2)/S$2</f>
+        <v>0.11977186311787066</v>
+      </c>
+      <c r="V7" s="7">
+        <f>(T7-T$2)/T$2</f>
+        <v>0.10272277227722769</v>
+      </c>
+      <c r="W7" s="7">
+        <f>U7/$L7</f>
+        <v>7.4857414448669168E-2</v>
+      </c>
+      <c r="X7" s="7">
+        <f>V7/$L7</f>
+        <v>6.4201732673267314E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>61</v>
       </c>
@@ -5679,21 +6057,51 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="M8">
-        <v>20.100000000000001</v>
+        <v>27.5</v>
       </c>
       <c r="N8">
-        <v>14</v>
-      </c>
-      <c r="O8">
-        <f>M8/L8</f>
-        <v>8.375</v>
-      </c>
-      <c r="P8">
-        <f>N8/L8</f>
-        <v>5.8333333333333321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" ref="O8:O10" si="0">(M8-M$2)/M$2</f>
+        <v>0.2331838565022421</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:P10" si="1">(N8-N$2)/N$2</f>
+        <v>0.14035087719298237</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:Q10" si="2">O8/$L8</f>
+        <v>9.7159940209267534E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f>P8/L8</f>
+        <v>5.8479532163742645E-2</v>
+      </c>
+      <c r="S8">
+        <v>62.6</v>
+      </c>
+      <c r="T8">
+        <v>92.5</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" ref="U8:U10" si="3">(S8-S$2)/S$2</f>
+        <v>0.19011406844106463</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" ref="V8:V10" si="4">(T8-T$2)/T$2</f>
+        <v>0.14480198019801985</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" ref="W8:W10" si="5">U8/$L8</f>
+        <v>7.9214195183776911E-2</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" ref="X8:X10" si="6">V8/$L8</f>
+        <v>6.0334158415841596E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>58</v>
       </c>
@@ -5720,21 +6128,51 @@
         <v>3.8</v>
       </c>
       <c r="M9">
-        <v>31.4</v>
+        <v>30.1</v>
       </c>
       <c r="N9">
-        <v>24</v>
-      </c>
-      <c r="O9">
-        <f>M9/L9</f>
-        <v>8.2631578947368425</v>
-      </c>
-      <c r="P9">
-        <f>N9/L9</f>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>84.8</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34977578475336324</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23976608187134488</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="2"/>
+        <v>9.2046259145621909E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f>P9/L9</f>
+        <v>6.3096337334564448E-2</v>
+      </c>
+      <c r="S9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="T9">
+        <v>100.2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.27566539923954358</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="4"/>
+        <v>0.24009900990099017</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2543526115669374E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="6"/>
+        <v>6.3183949973944789E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -5761,17 +6199,144 @@
         <v>6</v>
       </c>
       <c r="M10">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="N10">
+        <v>93</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5112107623318386</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35964912280701744</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5201793721973104E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f>P10/L10</f>
+        <v>5.994152046783624E-2</v>
+      </c>
+      <c r="S10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="T10">
+        <v>111.4</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.44676806083650178</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.37871287128712883</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="5"/>
+        <v>7.4461343472750297E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="6"/>
+        <v>6.3118811881188133E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L22">
+        <f>K22-$K$2</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="O22">
+        <v>13.5</v>
+      </c>
+      <c r="P22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q22">
+        <f>O22/L22</f>
+        <v>8.4375</v>
+      </c>
+      <c r="R22">
+        <f>P22/L22</f>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>3.1</v>
+      </c>
+      <c r="L23">
+        <f>K23-$K$2</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="O23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <f>O23/L23</f>
+        <v>8.375</v>
+      </c>
+      <c r="R23">
+        <f>P23/L23</f>
+        <v>5.8333333333333321</v>
+      </c>
+    </row>
+    <row r="24" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>4.5</v>
+      </c>
+      <c r="L24">
+        <f>K24-$K$2</f>
+        <v>3.8</v>
+      </c>
+      <c r="O24">
+        <v>31.4</v>
+      </c>
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <f>O24/L24</f>
+        <v>8.2631578947368425</v>
+      </c>
+      <c r="R24">
+        <f>P24/L24</f>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="25" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>6.7</v>
+      </c>
+      <c r="L25">
+        <f>K25-$K$2</f>
+        <v>6</v>
+      </c>
+      <c r="O25">
         <v>47.2</v>
       </c>
-      <c r="N10">
+      <c r="P25">
         <v>36</v>
       </c>
-      <c r="O10">
-        <f>M10/L10</f>
+      <c r="Q25">
+        <f>O25/L25</f>
         <v>7.8666666666666671</v>
       </c>
-      <c r="P10">
-        <f>N10/L10</f>
+      <c r="R25">
+        <f>P25/L25</f>
         <v>6</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmz5202/Software/tgw-tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C452A72-DAF2-FE41-87D1-286939AD3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1826139-FB11-0347-9011-577E015618D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57900" yWindow="5560" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics_output" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="CC base" sheetId="4" r:id="rId4"/>
+    <sheet name="C-C stats" sheetId="5" r:id="rId5"/>
+    <sheet name="Error_stats" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="122">
   <si>
     <t>Variable</t>
   </si>
@@ -336,6 +338,72 @@
   </si>
   <si>
     <t>dTMQ_95</t>
+  </si>
+  <si>
+    <t>MEAN_TEMP</t>
+  </si>
+  <si>
+    <t>COLD NEAR</t>
+  </si>
+  <si>
+    <t>HOT NEAR</t>
+  </si>
+  <si>
+    <t>COLD FAR</t>
+  </si>
+  <si>
+    <t>HOT FAR</t>
+  </si>
+  <si>
+    <t>HIST</t>
+  </si>
+  <si>
+    <t>WL (K)</t>
+  </si>
+  <si>
+    <t>CONUS T (K)</t>
+  </si>
+  <si>
+    <t>PRECT (mm/hr)</t>
+  </si>
+  <si>
+    <t>TMQ (mm)</t>
+  </si>
+  <si>
+    <t>dPRECT/K</t>
+  </si>
+  <si>
+    <t>dTMQ/K</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>95th</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Cold Near</t>
+  </si>
+  <si>
+    <t>Hot Near</t>
+  </si>
+  <si>
+    <t>Hot Far</t>
+  </si>
+  <si>
+    <t>Cold Far</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>(mb)</t>
+  </si>
+  <si>
+    <t>(km)</t>
   </si>
 </sst>
 </file>
@@ -830,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,6 +913,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1202,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -5744,15 +5814,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CC06A6-9503-D742-8415-062A32654C15}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z10" sqref="K1:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
@@ -5771,50 +5841,54 @@
       <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>92</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>99</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -5839,23 +5913,29 @@
       <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2">
         <v>0.7</v>
       </c>
       <c r="M2">
+        <v>284.89791870117102</v>
+      </c>
+      <c r="O2">
         <v>22.3</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>68.400000000000006</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>52.6</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>80.8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +5961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -5907,7 +5987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5933,7 +6013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -5959,7 +6039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>63</v>
       </c>
@@ -5978,59 +6058,65 @@
       <c r="I7" t="s">
         <v>62</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L7">
-        <f>K7-$K$2</f>
-        <v>1.5999999999999999</v>
-      </c>
       <c r="M7">
+        <v>286.54757690429602</v>
+      </c>
+      <c r="N7" s="6">
+        <f>M7-M$2</f>
+        <v>1.649658203125</v>
+      </c>
+      <c r="O7">
         <v>26</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>75.400000000000006</v>
       </c>
-      <c r="O7" s="7">
-        <f>(M7-M$2)/M$2</f>
+      <c r="Q7" s="7">
+        <f>(O7-O$2)/O$2</f>
         <v>0.16591928251121071</v>
       </c>
-      <c r="P7" s="7">
-        <f>(N7-N$2)/N$2</f>
+      <c r="R7" s="7">
+        <f>(P7-P$2)/P$2</f>
         <v>0.1023391812865497</v>
       </c>
-      <c r="Q7" s="7">
-        <f>O7/$L7</f>
-        <v>0.10369955156950671</v>
-      </c>
-      <c r="R7" s="7">
-        <f>P7/$L7</f>
-        <v>6.3961988304093567E-2</v>
-      </c>
-      <c r="S7">
+      <c r="S7" s="7">
+        <f>Q7/$N7</f>
+        <v>0.10057797560543423</v>
+      </c>
+      <c r="T7" s="7">
+        <f>R7/$N7</f>
+        <v>6.2036597091861413E-2</v>
+      </c>
+      <c r="U7">
         <v>58.9</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>89.1</v>
       </c>
-      <c r="U7" s="7">
-        <f>(S7-S$2)/S$2</f>
+      <c r="W7" s="7">
+        <f>(U7-U$2)/U$2</f>
         <v>0.11977186311787066</v>
       </c>
-      <c r="V7" s="7">
-        <f>(T7-T$2)/T$2</f>
+      <c r="X7" s="7">
+        <f>(V7-V$2)/V$2</f>
         <v>0.10272277227722769</v>
       </c>
-      <c r="W7" s="7">
-        <f>U7/$L7</f>
-        <v>7.4857414448669168E-2</v>
-      </c>
-      <c r="X7" s="7">
-        <f>V7/$L7</f>
-        <v>6.4201732673267314E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="7">
+        <f>W7/$N7</f>
+        <v>7.260404785123549E-2</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>X7/$N7</f>
+        <v>6.226912464814631E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>61</v>
       </c>
@@ -6049,59 +6135,65 @@
       <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8">
         <v>3.1</v>
       </c>
-      <c r="L8">
-        <f>K8-$K$2</f>
-        <v>2.4000000000000004</v>
-      </c>
       <c r="M8">
+        <v>287.27014160156199</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" ref="N8:N10" si="0">M8-M$2</f>
+        <v>2.3722229003909661</v>
+      </c>
+      <c r="O8">
         <v>27.5</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>78</v>
       </c>
-      <c r="O8" s="7">
-        <f t="shared" ref="O8:O10" si="0">(M8-M$2)/M$2</f>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:Q10" si="1">(O8-O$2)/O$2</f>
         <v>0.2331838565022421</v>
       </c>
-      <c r="P8" s="7">
-        <f t="shared" ref="P8:P10" si="1">(N8-N$2)/N$2</f>
+      <c r="R8" s="7">
+        <f t="shared" ref="R8:R10" si="2">(P8-P$2)/P$2</f>
         <v>0.14035087719298237</v>
       </c>
-      <c r="Q8" s="7">
-        <f t="shared" ref="Q8:Q10" si="2">O8/$L8</f>
-        <v>9.7159940209267534E-2</v>
-      </c>
-      <c r="R8" s="7">
-        <f>P8/L8</f>
-        <v>5.8479532163742645E-2</v>
-      </c>
-      <c r="S8">
+      <c r="S8" s="7">
+        <f t="shared" ref="S8:S10" si="3">Q8/$N8</f>
+        <v>9.8297616325940987E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f>R8/N8</f>
+        <v>5.916428728929779E-2</v>
+      </c>
+      <c r="U8">
         <v>62.6</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>92.5</v>
       </c>
-      <c r="U8" s="7">
-        <f t="shared" ref="U8:U10" si="3">(S8-S$2)/S$2</f>
+      <c r="W8" s="7">
+        <f t="shared" ref="W8:W10" si="4">(U8-U$2)/U$2</f>
         <v>0.19011406844106463</v>
       </c>
-      <c r="V8" s="7">
-        <f t="shared" ref="V8:V10" si="4">(T8-T$2)/T$2</f>
+      <c r="X8" s="7">
+        <f t="shared" ref="X8:X10" si="5">(V8-V$2)/V$2</f>
         <v>0.14480198019801985</v>
       </c>
-      <c r="W8" s="7">
-        <f t="shared" ref="W8:W10" si="5">U8/$L8</f>
-        <v>7.9214195183776911E-2</v>
-      </c>
-      <c r="X8" s="7">
-        <f t="shared" ref="X8:X10" si="6">V8/$L8</f>
-        <v>6.0334158415841596E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="7">
+        <f t="shared" ref="Y8:Y10" si="6">W8/$N8</f>
+        <v>8.0141738961263684E-2</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" ref="Z8:Z10" si="7">X8/$N8</f>
+        <v>6.1040629940025883E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>58</v>
       </c>
@@ -6120,59 +6212,65 @@
       <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9">
         <v>4.5</v>
       </c>
-      <c r="L9">
-        <f>K9-$K$2</f>
-        <v>3.8</v>
-      </c>
       <c r="M9">
+        <v>288.70513916015602</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8072204589850003</v>
+      </c>
+      <c r="O9">
         <v>30.1</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>84.8</v>
       </c>
-      <c r="O9" s="7">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="7">
+        <f t="shared" si="1"/>
         <v>0.34977578475336324</v>
       </c>
-      <c r="P9" s="7">
-        <f t="shared" si="1"/>
+      <c r="R9" s="7">
+        <f t="shared" si="2"/>
         <v>0.23976608187134488</v>
       </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="2"/>
-        <v>9.2046259145621909E-2</v>
-      </c>
-      <c r="R9" s="7">
-        <f>P9/L9</f>
-        <v>6.3096337334564448E-2</v>
-      </c>
-      <c r="S9">
+      <c r="S9" s="7">
+        <f t="shared" si="3"/>
+        <v>9.1871691834365957E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f>R9/N9</f>
+        <v>6.2976674047204029E-2</v>
+      </c>
+      <c r="U9">
         <v>67.099999999999994</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>100.2</v>
       </c>
-      <c r="U9" s="7">
-        <f t="shared" si="3"/>
+      <c r="W9" s="7">
+        <f t="shared" si="4"/>
         <v>0.27566539923954358</v>
       </c>
-      <c r="V9" s="7">
-        <f t="shared" si="4"/>
+      <c r="X9" s="7">
+        <f t="shared" si="5"/>
         <v>0.24009900990099017</v>
       </c>
-      <c r="W9" s="7">
-        <f t="shared" si="5"/>
-        <v>7.2543526115669374E-2</v>
-      </c>
-      <c r="X9" s="7">
+      <c r="Y9" s="7">
         <f t="shared" si="6"/>
-        <v>6.3183949973944789E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>7.2405946072541222E-2</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="7"/>
+        <v>6.3064120527709142E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -6191,154 +6289,623 @@
       <c r="I10" t="s">
         <v>52</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10">
         <v>6.7</v>
       </c>
-      <c r="L10">
-        <f>K10-$K$2</f>
+      <c r="M10">
+        <v>290.55340576171801</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6554870605469887</v>
+      </c>
+      <c r="O10">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P10">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5112107623318386</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35964912280701744</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="3"/>
+        <v>9.0391995748354728E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <f>R10/N10</f>
+        <v>6.359295299532218E-2</v>
+      </c>
+      <c r="U10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="V10">
+        <v>111.4</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.44676806083650178</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.37871287128712883</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="6"/>
+        <v>7.8997273984266023E-2</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="7"/>
+        <v>6.6963794140570521E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N22">
+        <f>L22-$L$2</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>13.5</v>
+      </c>
+      <c r="R22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S22">
+        <f>Q22/N22</f>
+        <v>8.4375</v>
+      </c>
+      <c r="T22">
+        <f>R22/N22</f>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="N23">
+        <f>L23-$L$2</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="Q23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <f>Q23/N23</f>
+        <v>8.375</v>
+      </c>
+      <c r="T23">
+        <f>R23/N23</f>
+        <v>5.8333333333333321</v>
+      </c>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>4.5</v>
+      </c>
+      <c r="N24">
+        <f>L24-$L$2</f>
+        <v>3.8</v>
+      </c>
+      <c r="Q24">
+        <v>31.4</v>
+      </c>
+      <c r="R24">
+        <v>24</v>
+      </c>
+      <c r="S24">
+        <f>Q24/N24</f>
+        <v>8.2631578947368425</v>
+      </c>
+      <c r="T24">
+        <f>R24/N24</f>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="25" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>6.7</v>
+      </c>
+      <c r="N25">
+        <f>L25-$L$2</f>
         <v>6</v>
       </c>
-      <c r="M10">
+      <c r="Q25">
+        <v>47.2</v>
+      </c>
+      <c r="R25">
+        <v>36</v>
+      </c>
+      <c r="S25">
+        <f>Q25/N25</f>
+        <v>7.8666666666666671</v>
+      </c>
+      <c r="T25">
+        <f>R25/N25</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF0ABC-2771-8447-8A8A-C73AB93619B6}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8">
+        <v>284.89791870117102</v>
+      </c>
+      <c r="D2" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H2">
+        <v>52.6</v>
+      </c>
+      <c r="I2">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8">
+        <v>286.54757690429602</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.649658203125</v>
+      </c>
+      <c r="D3" s="6">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.10057797560543423</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6.2036597091861413E-2</v>
+      </c>
+      <c r="H3">
+        <v>58.9</v>
+      </c>
+      <c r="I3">
+        <v>89.1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7.260404785123549E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>6.226912464814631E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="8">
+        <v>287.27014160156199</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.3722229003909661</v>
+      </c>
+      <c r="D4" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7">
+        <v>9.8297616325940987E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.916428728929779E-2</v>
+      </c>
+      <c r="H4">
+        <v>62.6</v>
+      </c>
+      <c r="I4">
+        <v>92.5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8.0141738961263684E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6.1040629940025883E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="8">
+        <v>288.70513916015602</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.8072204589850003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>84.8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9.1871691834365957E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6.2976674047204029E-2</v>
+      </c>
+      <c r="H5">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I5">
+        <v>100.2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7.2405946072541222E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.3064120527709142E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="8">
+        <v>290.55340576171801</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.6554870605469887</v>
+      </c>
+      <c r="D6" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="N10">
+      <c r="E6" s="6">
         <v>93</v>
       </c>
-      <c r="O10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5112107623318386</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.35964912280701744</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="2"/>
-        <v>8.5201793721973104E-2</v>
-      </c>
-      <c r="R10" s="7">
-        <f>P10/L10</f>
-        <v>5.994152046783624E-2</v>
-      </c>
-      <c r="S10">
+      <c r="F6" s="7">
+        <v>9.0391995748354728E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.359295299532218E-2</v>
+      </c>
+      <c r="H6">
         <v>76.099999999999994</v>
       </c>
-      <c r="T10">
+      <c r="I6">
         <v>111.4</v>
       </c>
-      <c r="U10" s="7">
-        <f t="shared" si="3"/>
-        <v>0.44676806083650178</v>
-      </c>
-      <c r="V10" s="7">
-        <f t="shared" si="4"/>
-        <v>0.37871287128712883</v>
-      </c>
-      <c r="W10" s="7">
-        <f t="shared" si="5"/>
-        <v>7.4461343472750297E-2</v>
-      </c>
-      <c r="X10" s="7">
-        <f t="shared" si="6"/>
-        <v>6.3118811881188133E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="O21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L22">
-        <f>K22-$K$2</f>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="O22">
-        <v>13.5</v>
-      </c>
-      <c r="P22">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q22">
-        <f>O22/L22</f>
-        <v>8.4375</v>
-      </c>
-      <c r="R22">
-        <f>P22/L22</f>
-        <v>6.375</v>
-      </c>
-    </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K23">
-        <v>3.1</v>
-      </c>
-      <c r="L23">
-        <f>K23-$K$2</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="O23">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="P23">
-        <v>14</v>
-      </c>
-      <c r="Q23">
-        <f>O23/L23</f>
-        <v>8.375</v>
-      </c>
-      <c r="R23">
-        <f>P23/L23</f>
-        <v>5.8333333333333321</v>
-      </c>
-    </row>
-    <row r="24" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K24">
-        <v>4.5</v>
-      </c>
-      <c r="L24">
-        <f>K24-$K$2</f>
-        <v>3.8</v>
-      </c>
-      <c r="O24">
-        <v>31.4</v>
-      </c>
-      <c r="P24">
-        <v>24</v>
-      </c>
-      <c r="Q24">
-        <f>O24/L24</f>
-        <v>8.2631578947368425</v>
-      </c>
-      <c r="R24">
-        <f>P24/L24</f>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="25" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K25">
-        <v>6.7</v>
-      </c>
-      <c r="L25">
-        <f>K25-$K$2</f>
-        <v>6</v>
-      </c>
-      <c r="O25">
-        <v>47.2</v>
-      </c>
-      <c r="P25">
-        <v>36</v>
-      </c>
-      <c r="Q25">
-        <f>O25/L25</f>
-        <v>7.8666666666666671</v>
-      </c>
-      <c r="R25">
-        <f>P25/L25</f>
-        <v>6</v>
-      </c>
+      <c r="J6" s="7">
+        <v>7.8997273984266023E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6.6963794140570521E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C839C778-0EF2-0B4B-9F55-E81A2260D251}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14.857117499999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>75.176299999999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>98.790898280346795</v>
+      </c>
+      <c r="F2" s="6">
+        <v>286.71795499999899</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15.896803</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75.291319999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>99.875557691885206</v>
+      </c>
+      <c r="F3" s="6">
+        <v>288.230269999999</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16.746911999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>77.347949999999997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>103.10772426634</v>
+      </c>
+      <c r="F4" s="6">
+        <v>290.45813500000003</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>17.053102499999898</v>
+      </c>
+      <c r="D5" s="6">
+        <v>80.615380000000002</v>
+      </c>
+      <c r="E5" s="6">
+        <v>105.862958558025</v>
+      </c>
+      <c r="F5" s="6">
+        <v>294.68311</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19.117886500000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>84.655370000000005</v>
+      </c>
+      <c r="E6" s="6">
+        <v>110.396567197198</v>
+      </c>
+      <c r="F6" s="6">
+        <v>299.32634499999898</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-3.7755066499999899</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.1409609999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.3246547740604004</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20.643887999999901</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-4.7083529499999903</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.7965084999999901</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.67894576516044</v>
+      </c>
+      <c r="F8" s="6">
+        <v>19.14697</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-5.4580626999999904</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.6289979999999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.2787549681452801</v>
+      </c>
+      <c r="F9" s="9">
+        <v>18.652849999999901</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-6.6409028999999897</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.687012</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.1391643665493199</v>
+      </c>
+      <c r="F10" s="9">
+        <v>18.709366499999899</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-7.7234283000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.6669619999999901</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.8275108793794299</v>
+      </c>
+      <c r="F11" s="9">
+        <v>18.1540664999999</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmz5202/Software/tgw-tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1826139-FB11-0347-9011-577E015618D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40972A48-C80E-8642-A747-1DD396DA94ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics_output" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="CC base" sheetId="4" r:id="rId4"/>
-    <sheet name="C-C stats" sheetId="5" r:id="rId5"/>
-    <sheet name="Error_stats" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="CC base" sheetId="4" r:id="rId5"/>
+    <sheet name="C-C stats" sheetId="5" r:id="rId6"/>
+    <sheet name="Error_stats" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="142">
   <si>
     <t>Variable</t>
   </si>
@@ -404,6 +405,66 @@
   </si>
   <si>
     <t>(km)</t>
+  </si>
+  <si>
+    <t>MSLP</t>
+  </si>
+  <si>
+    <t>u10m,x</t>
+  </si>
+  <si>
+    <t>IKE</t>
+  </si>
+  <si>
+    <t>TPWx</t>
+  </si>
+  <si>
+    <t>Precx</t>
+  </si>
+  <si>
+    <t>Precarea&gt;10</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>RMW</t>
+  </si>
+  <si>
+    <t>dPSL</t>
+  </si>
+  <si>
+    <t>Local minimum in SLP at TC center</t>
+  </si>
+  <si>
+    <t>Number of 10x10 snapshot cells over 10 mm/hr scaled by XXX km2 per cells</t>
+  </si>
+  <si>
+    <t>First point of aximuthally averaged U10V10 where wind drops below 8m/s</t>
+  </si>
+  <si>
+    <t>Distance from SLP minimum where azimutally averaged U10V10 occurs</t>
+  </si>
+  <si>
+    <t>Backward difference of 6-hourly MSLP along each trajectory (no value for genesis point)</t>
+  </si>
+  <si>
+    <t>Calculated as XXXXX, Eq. XXX using 850 hPa UV scaled by 0.8 based on XXXXXX.</t>
+  </si>
+  <si>
+    <t>Maximum of TMQ over 10x10 snapshot</t>
+  </si>
+  <si>
+    <t>Maximum of PRECT over 10x10 snapshot</t>
+  </si>
+  <si>
+    <t>Maximum of U10V10 over 10x10 snapshot</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -3607,6 +3668,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402EA909-F4C2-A34F-864D-41FFD39D614E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BS9"/>
   <sheetViews>
@@ -5556,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:M19"/>
   <sheetViews>
@@ -5812,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CC06A6-9503-D742-8415-062A32654C15}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
@@ -6449,7 +6605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF0ABC-2771-8447-8A8A-C73AB93619B6}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -6660,7 +6816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C839C778-0EF2-0B4B-9F55-E81A2260D251}">
   <dimension ref="A1:G15"/>
   <sheetViews>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmz5202/Software/tgw-tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40972A48-C80E-8642-A747-1DD396DA94ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A9364-7A96-3F4F-8AA6-852771AA70EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15560" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics_output" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="144">
   <si>
     <t>Variable</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>Definition</t>
+  </si>
+  <si>
+    <t>dSST(K)</t>
+  </si>
+  <si>
+    <t>SST</t>
   </si>
 </sst>
 </file>
@@ -959,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,6 +982,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3671,7 +3678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402EA909-F4C2-A34F-864D-41FFD39D614E}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -3766,7 +3773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BS9"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="AK3" sqref="AK3:AO3"/>
     </sheetView>
   </sheetViews>
@@ -5970,10 +5977,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CC06A6-9503-D742-8415-062A32654C15}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="K1:Z10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6503,101 +6510,628 @@
         <v>6.6963794140570521E-2</v>
       </c>
     </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="Q21" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="10">
+        <v>299.54677172874801</v>
+      </c>
+      <c r="O13">
+        <v>22.3</v>
+      </c>
+      <c r="P13">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U13">
+        <v>52.6</v>
+      </c>
+      <c r="V13">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>3.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>6.7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>8.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="10">
+        <v>300.71680754536698</v>
+      </c>
+      <c r="N18" s="6">
+        <f>M18-M$13</f>
+        <v>1.1700358166189631</v>
+      </c>
+      <c r="O18">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="Q18" s="7">
+        <f>(O18-O$2)/O$2</f>
+        <v>0.16591928251121071</v>
+      </c>
+      <c r="R18" s="7">
+        <f>(P18-P$2)/P$2</f>
+        <v>0.1023391812865497</v>
+      </c>
+      <c r="S18" s="7">
+        <f>Q18/$N18</f>
+        <v>0.14180701150727629</v>
+      </c>
+      <c r="T18" s="7">
+        <f>R18/$N18</f>
+        <v>8.7466708140848087E-2</v>
+      </c>
+      <c r="U18">
+        <v>58.9</v>
+      </c>
+      <c r="V18">
+        <v>89.1</v>
+      </c>
+      <c r="W18" s="7">
+        <f>(U18-U$2)/U$2</f>
+        <v>0.11977186311787066</v>
+      </c>
+      <c r="X18" s="7">
+        <f>(V18-V$2)/V$2</f>
+        <v>0.10272277227722769</v>
+      </c>
+      <c r="Y18" s="7">
+        <f>W18/$N18</f>
+        <v>0.10236598009792026</v>
+      </c>
+      <c r="Z18" s="7">
+        <f>X18/$N18</f>
+        <v>8.7794553652267085E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>8.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="10">
+        <v>301.20086914995198</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" ref="N19:N21" si="8">M19-M$13</f>
+        <v>1.6540974212039714</v>
+      </c>
+      <c r="O19">
+        <v>27.5</v>
+      </c>
+      <c r="P19">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19:Q21" si="9">(O19-O$2)/O$2</f>
+        <v>0.2331838565022421</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" ref="R19:R21" si="10">(P19-P$2)/P$2</f>
+        <v>0.14035087719298237</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" ref="S19:S21" si="11">Q19/$N19</f>
+        <v>0.14097347200536356</v>
+      </c>
+      <c r="T19" s="7">
+        <f>R19/N19</f>
+        <v>8.4850429843983957E-2</v>
+      </c>
+      <c r="U19">
+        <v>62.6</v>
+      </c>
+      <c r="V19">
+        <v>92.5</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" ref="W19:W21" si="12">(U19-U$2)/U$2</f>
+        <v>0.19011406844106463</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" ref="X19:X21" si="13">(V19-V$2)/V$2</f>
+        <v>0.14480198019801985</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" ref="Y19:Y21" si="14">W19/$N19</f>
+        <v>0.11493523053961713</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" ref="Z19:Z21" si="15">X19/$N19</f>
+        <v>8.7541385617192075E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>8.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="10">
+        <v>302.15503581661801</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="8"/>
+        <v>2.6082640878699976</v>
+      </c>
+      <c r="O20">
+        <v>30.1</v>
+      </c>
+      <c r="P20">
+        <v>84.8</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="9"/>
+        <v>0.34977578475336324</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="10"/>
+        <v>0.23976608187134488</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="11"/>
+        <v>0.13410290253200655</v>
+      </c>
+      <c r="T20" s="7">
+        <f>R20/N20</f>
+        <v>9.1925538900145071E-2</v>
+      </c>
+      <c r="U20">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="V20">
+        <v>100.2</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="12"/>
+        <v>0.27566539923954358</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.24009900990099017</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="14"/>
+        <v>0.10568922085825361</v>
+      </c>
+      <c r="Z20" s="7">
+        <f t="shared" si="15"/>
+        <v>9.2053182427958694E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>8.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="10">
+        <v>303.35076886341898</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="8"/>
+        <v>3.8039971346709649</v>
+      </c>
+      <c r="O21">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P21">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="9"/>
+        <v>0.5112107623318386</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.35964912280701744</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="11"/>
+        <v>0.13438778848503441</v>
+      </c>
+      <c r="T21" s="7">
+        <f>R21/N21</f>
+        <v>9.4545056180260795E-2</v>
+      </c>
+      <c r="U21">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="V21">
+        <v>111.4</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="12"/>
+        <v>0.44676806083650178</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="13"/>
+        <v>0.37871287128712883</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.11744700246078024</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="15"/>
+        <v>9.9556560607106354E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L22">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H31" s="10">
+        <v>299.54677172874801</v>
+      </c>
+      <c r="L31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N22">
-        <f>L22-$L$2</f>
+      <c r="N31">
+        <f>L31-$L$2</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="Q22">
+      <c r="Q31">
         <v>13.5</v>
       </c>
-      <c r="R22">
+      <c r="R31">
         <v>10.199999999999999</v>
       </c>
-      <c r="S22">
-        <f>Q22/N22</f>
+      <c r="S31">
+        <f>Q31/N31</f>
         <v>8.4375</v>
       </c>
-      <c r="T22">
-        <f>R22/N22</f>
+      <c r="T31">
+        <f>R31/N31</f>
         <v>6.375</v>
       </c>
     </row>
-    <row r="23" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L23">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H32" s="10">
+        <v>300.71680754536698</v>
+      </c>
+      <c r="L32">
         <v>3.1</v>
       </c>
-      <c r="N23">
-        <f>L23-$L$2</f>
+      <c r="N32">
+        <f>L32-$L$2</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="Q23">
+      <c r="Q32">
         <v>20.100000000000001</v>
       </c>
-      <c r="R23">
+      <c r="R32">
         <v>14</v>
       </c>
-      <c r="S23">
-        <f>Q23/N23</f>
+      <c r="S32">
+        <f>Q32/N32</f>
         <v>8.375</v>
       </c>
-      <c r="T23">
-        <f>R23/N23</f>
+      <c r="T32">
+        <f>R32/N32</f>
         <v>5.8333333333333321</v>
       </c>
     </row>
-    <row r="24" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L24">
+    <row r="33" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H33" s="10">
+        <v>301.20086914995198</v>
+      </c>
+      <c r="L33">
         <v>4.5</v>
       </c>
-      <c r="N24">
-        <f>L24-$L$2</f>
+      <c r="N33">
+        <f>L33-$L$2</f>
         <v>3.8</v>
       </c>
-      <c r="Q24">
+      <c r="Q33">
         <v>31.4</v>
       </c>
-      <c r="R24">
+      <c r="R33">
         <v>24</v>
       </c>
-      <c r="S24">
-        <f>Q24/N24</f>
+      <c r="S33">
+        <f>Q33/N33</f>
         <v>8.2631578947368425</v>
       </c>
-      <c r="T24">
-        <f>R24/N24</f>
+      <c r="T33">
+        <f>R33/N33</f>
         <v>6.3157894736842106</v>
       </c>
     </row>
-    <row r="25" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L25">
+    <row r="34" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H34" s="10">
+        <v>302.15503581661801</v>
+      </c>
+      <c r="L34">
         <v>6.7</v>
       </c>
-      <c r="N25">
-        <f>L25-$L$2</f>
+      <c r="N34">
+        <f>L34-$L$2</f>
         <v>6</v>
       </c>
-      <c r="Q25">
+      <c r="Q34">
         <v>47.2</v>
       </c>
-      <c r="R25">
+      <c r="R34">
         <v>36</v>
       </c>
-      <c r="S25">
-        <f>Q25/N25</f>
+      <c r="S34">
+        <f>Q34/N34</f>
         <v>7.8666666666666671</v>
       </c>
-      <c r="T25">
-        <f>R25/N25</f>
+      <c r="T34">
+        <f>R34/N34</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H35" s="10">
+        <v>303.35076886341898</v>
       </c>
     </row>
   </sheetData>
@@ -6607,10 +7141,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF0ABC-2771-8447-8A8A-C73AB93619B6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G10" sqref="G10:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6808,6 +7342,202 @@
         <v>7.8997273984266023E-2</v>
       </c>
       <c r="K6" s="7">
+        <v>6.6963794140570521E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="10">
+        <v>299.54677172874801</v>
+      </c>
+      <c r="D9" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H9">
+        <v>52.6</v>
+      </c>
+      <c r="I9">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="10">
+        <v>300.71680754536698</v>
+      </c>
+      <c r="C10" s="6">
+        <f>B10-B9</f>
+        <v>1.1700358166189631</v>
+      </c>
+      <c r="D10" s="6">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.14180701150727629</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8.7466708140848087E-2</v>
+      </c>
+      <c r="H10">
+        <v>58.9</v>
+      </c>
+      <c r="I10">
+        <v>89.1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7.260404785123549E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>6.226912464814631E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="10">
+        <v>301.20086914995198</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:C13" si="0">B11-B10</f>
+        <v>0.48406160458500835</v>
+      </c>
+      <c r="D11" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>78</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.14097347200536356</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8.4850429843983957E-2</v>
+      </c>
+      <c r="H11">
+        <v>62.6</v>
+      </c>
+      <c r="I11">
+        <v>92.5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>8.0141738961263684E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6.1040629940025883E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="10">
+        <v>302.15503581661801</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95416666666602623</v>
+      </c>
+      <c r="D12" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>84.8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.13410290253200655</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9.1925538900145071E-2</v>
+      </c>
+      <c r="H12">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="I12">
+        <v>100.2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>7.2405946072541222E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>6.3064120527709142E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="10">
+        <v>303.35076886341898</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1957330468009673</v>
+      </c>
+      <c r="D13" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E13" s="6">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.13438778848503441</v>
+      </c>
+      <c r="G13" s="7">
+        <v>9.4545056180260795E-2</v>
+      </c>
+      <c r="H13">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="I13">
+        <v>111.4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>7.8997273984266023E-2</v>
+      </c>
+      <c r="K13" s="7">
         <v>6.6963794140570521E-2</v>
       </c>
     </row>
